--- a/ValueSet-dk-core-cpr-identifier-system.xlsx
+++ b/ValueSet-dk-core-cpr-identifier-system.xlsx
@@ -30,13 +30,13 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>DK Valid Identifier</t>
+    <t>DkCoreValidIdentifier</t>
   </si>
   <si>
     <t>Title</t>

--- a/ValueSet-dk-core-cpr-identifier-system.xlsx
+++ b/ValueSet-dk-core-cpr-identifier-system.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ValueSet-dk-core-cpr-identifier-system.xlsx
+++ b/ValueSet-dk-core-cpr-identifier-system.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
